--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H2">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>0.2650630765035555</v>
+        <v>3.527459491934444</v>
       </c>
       <c r="R2">
-        <v>2.385567688532</v>
+        <v>31.74713542740999</v>
       </c>
       <c r="S2">
-        <v>0.0002168808359801741</v>
+        <v>0.001387545377215068</v>
       </c>
       <c r="T2">
-        <v>0.0002168808359801741</v>
+        <v>0.001387545377215068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H3">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>2.601370601969778</v>
+        <v>30.66786717566867</v>
       </c>
       <c r="R3">
-        <v>23.412335417728</v>
+        <v>276.010804581018</v>
       </c>
       <c r="S3">
-        <v>0.002128502537175849</v>
+        <v>0.01206337235790874</v>
       </c>
       <c r="T3">
-        <v>0.002128502537175849</v>
+        <v>0.01206337235790874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H4">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>0.6320353256533332</v>
+        <v>2.753679716522222</v>
       </c>
       <c r="R4">
-        <v>5.688317930879999</v>
+        <v>24.7831174487</v>
       </c>
       <c r="S4">
-        <v>0.0005171461510402326</v>
+        <v>0.001083174893922302</v>
       </c>
       <c r="T4">
-        <v>0.0005171461510402326</v>
+        <v>0.001083174893922302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I5">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J5">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>38.96399535714933</v>
+        <v>68.47701559060664</v>
       </c>
       <c r="R5">
-        <v>350.675958214344</v>
+        <v>616.2931403154598</v>
       </c>
       <c r="S5">
-        <v>0.03188125633210483</v>
+        <v>0.02693580653313882</v>
       </c>
       <c r="T5">
-        <v>0.03188125633210484</v>
+        <v>0.02693580653313883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I6">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J6">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>382.3987610587307</v>
+        <v>595.3417816762119</v>
       </c>
       <c r="R6">
-        <v>3441.588849528576</v>
+        <v>5358.076035085908</v>
       </c>
       <c r="S6">
-        <v>0.3128876494991102</v>
+        <v>0.2341809279218115</v>
       </c>
       <c r="T6">
-        <v>0.3128876494991102</v>
+        <v>0.2341809279218116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1135.616028</v>
       </c>
       <c r="I7">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J7">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>92.90853263743999</v>
+        <v>53.45597002913333</v>
       </c>
       <c r="R7">
-        <v>836.1767937369599</v>
+        <v>481.1037302622</v>
       </c>
       <c r="S7">
-        <v>0.07601994398427266</v>
+        <v>0.02102719656117021</v>
       </c>
       <c r="T7">
-        <v>0.07601994398427266</v>
+        <v>0.02102719656117021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H8">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I8">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J8">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N8">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q8">
-        <v>28.90920714130089</v>
+        <v>87.11316906624054</v>
       </c>
       <c r="R8">
-        <v>260.182864271708</v>
+        <v>784.018521596165</v>
       </c>
       <c r="S8">
-        <v>0.02365419240972725</v>
+        <v>0.03426643886593016</v>
       </c>
       <c r="T8">
-        <v>0.02365419240972725</v>
+        <v>0.03426643886593016</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H9">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I9">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J9">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N9">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O9">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P9">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q9">
-        <v>283.7194926416925</v>
+        <v>757.3652098014464</v>
       </c>
       <c r="R9">
-        <v>2553.475433775232</v>
+        <v>6816.286888213018</v>
       </c>
       <c r="S9">
-        <v>0.2321459539355181</v>
+        <v>0.2979137246299658</v>
       </c>
       <c r="T9">
-        <v>0.2321459539355181</v>
+        <v>0.2979137246299658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H10">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N10">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O10">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P10">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q10">
-        <v>68.93317768341333</v>
+        <v>68.00411663072779</v>
       </c>
       <c r="R10">
-        <v>620.39859915072</v>
+        <v>612.0370496765501</v>
       </c>
       <c r="S10">
-        <v>0.05640274533879872</v>
+        <v>0.02674978915514482</v>
       </c>
       <c r="T10">
-        <v>0.05640274533879871</v>
+        <v>0.02674978915514482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H11">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I11">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J11">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N11">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q11">
-        <v>0.6837231702902223</v>
+        <v>1.973600635768333</v>
       </c>
       <c r="R11">
-        <v>6.153508532612</v>
+        <v>17.76240572191499</v>
       </c>
       <c r="S11">
-        <v>0.0005594383597579998</v>
+        <v>0.000776326544611093</v>
       </c>
       <c r="T11">
-        <v>0.0005594383597579999</v>
+        <v>0.000776326544611093</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H12">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I12">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J12">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N12">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O12">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P12">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q12">
-        <v>6.710166419783111</v>
+        <v>17.158559097263</v>
       </c>
       <c r="R12">
-        <v>60.391497778048</v>
+        <v>154.427031875367</v>
       </c>
       <c r="S12">
-        <v>0.005490415797951139</v>
+        <v>0.006749412547335153</v>
       </c>
       <c r="T12">
-        <v>0.005490415797951139</v>
+        <v>0.006749412547335153</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H13">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I13">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J13">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N13">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O13">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P13">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q13">
-        <v>1.630318346453333</v>
+        <v>1.540673692116667</v>
       </c>
       <c r="R13">
-        <v>14.67286511808</v>
+        <v>13.86606322905</v>
       </c>
       <c r="S13">
-        <v>0.001333964770034166</v>
+        <v>0.0006060323766102317</v>
       </c>
       <c r="T13">
-        <v>0.001333964770034166</v>
+        <v>0.0006060323766102316</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H14">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I14">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J14">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N14">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q14">
-        <v>13.59528684376489</v>
+        <v>17.81575034903611</v>
       </c>
       <c r="R14">
-        <v>122.357581593884</v>
+        <v>160.341753141325</v>
       </c>
       <c r="S14">
-        <v>0.01112398307210639</v>
+        <v>0.007007922300722536</v>
       </c>
       <c r="T14">
-        <v>0.01112398307210639</v>
+        <v>0.007007922300722537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H15">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I15">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J15">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N15">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O15">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P15">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q15">
-        <v>133.4262771987485</v>
+        <v>154.8908120953317</v>
       </c>
       <c r="R15">
-        <v>1200.836494788736</v>
+        <v>1394.017308857985</v>
       </c>
       <c r="S15">
-        <v>0.1091725144154465</v>
+        <v>0.06092714339806776</v>
       </c>
       <c r="T15">
-        <v>0.1091725144154465</v>
+        <v>0.06092714339806778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H16">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I16">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J16">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N16">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O16">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P16">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q16">
-        <v>32.41757268117333</v>
+        <v>13.90770623530556</v>
       </c>
       <c r="R16">
-        <v>291.75815413056</v>
+        <v>125.16935611775</v>
       </c>
       <c r="S16">
-        <v>0.02652481951195725</v>
+        <v>0.005470671892501503</v>
       </c>
       <c r="T16">
-        <v>0.02652481951195725</v>
+        <v>0.005470671892501503</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H17">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I17">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J17">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N17">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q17">
-        <v>10.18022402210178</v>
+        <v>63.79542750577999</v>
       </c>
       <c r="R17">
-        <v>91.622016198916</v>
+        <v>574.1588475520199</v>
       </c>
       <c r="S17">
-        <v>0.008329698445755672</v>
+        <v>0.02509427839653533</v>
       </c>
       <c r="T17">
-        <v>0.008329698445755674</v>
+        <v>0.02509427839653533</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H18">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I18">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J18">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N18">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O18">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P18">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q18">
-        <v>99.91031509138489</v>
+        <v>554.639876555844</v>
       </c>
       <c r="R18">
-        <v>899.1928358224638</v>
+        <v>4991.758889002596</v>
       </c>
       <c r="S18">
-        <v>0.08174896687193432</v>
+        <v>0.2181706121626243</v>
       </c>
       <c r="T18">
-        <v>0.08174896687193432</v>
+        <v>0.2181706121626243</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H19">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I19">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J19">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N19">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O19">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P19">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q19">
-        <v>24.27445304682666</v>
+        <v>49.80133014460001</v>
       </c>
       <c r="R19">
-        <v>218.47007742144</v>
+        <v>448.2119713014</v>
       </c>
       <c r="S19">
-        <v>0.01986192773132862</v>
+        <v>0.01958962408478463</v>
       </c>
       <c r="T19">
-        <v>0.01986192773132862</v>
+        <v>0.01958962408478463</v>
       </c>
     </row>
   </sheetData>
